--- a/classfiers/mega/elm/nearmiss/ELM_tanh_nearmiss_results.xlsx
+++ b/classfiers/mega/elm/nearmiss/ELM_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5268817204301075</v>
+        <v>0.4942528735632184</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6901408450704225</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="E2" t="n">
-        <v>0.574468085106383</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.7226890756302522</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7404614019520852</v>
+        <v>0.652439024390244</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4939759036144578</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9318181818181818</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6456692913385826</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6374777183600713</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0392156862745098</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.520888888888889</v>
+        <v>0.5113636363636364</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.702043865234445</v>
+        <v>0.409762242166588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6311799628942485</v>
+        <v>0.7869565217391304</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4742303461347658</v>
+        <v>0.5373106237128125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5967000351880163</v>
+        <v>0.5305383099285538</v>
       </c>
     </row>
   </sheetData>
